--- a/Метяп/4/lab.xlsx
+++ b/Метяп/4/lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prikol\education\Курс 3\1 Семестр\Метяп\lab\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A173A-B63B-496A-BA98-D9CA7854A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341BD83-5968-4D89-9018-64A663C6CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="122">
   <si>
     <t>CREATE</t>
   </si>
@@ -679,9 +679,6 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -695,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,38 +703,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBD57B-C329-462B-A0AD-BBA20D23695A}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,29 +1039,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="25"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1071,112 +1071,112 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="7" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="10">
+      <c r="G8" s="15"/>
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>3</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
@@ -1187,21 +1187,21 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="23" t="s">
         <v>7</v>
       </c>
       <c r="L10" t="str">
@@ -1210,18 +1210,18 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J11" t="s">
@@ -1233,18 +1233,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
@@ -1256,18 +1256,18 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I13" t="s">
@@ -1282,18 +1282,18 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
@@ -1305,18 +1305,18 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" t="s">
@@ -1328,18 +1328,18 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I16" t="s">
@@ -1351,18 +1351,18 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I17" t="s">
@@ -1377,42 +1377,42 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G20" t="s">
@@ -1420,89 +1420,89 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1534,37 +1534,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="10">
+      <c r="A2" s="15"/>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1575,10 +1575,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="str">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D5" t="s">
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
@@ -1694,12 +1694,13 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1780,6 +1781,9 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
       <c r="I5">
         <v>4</v>
       </c>
@@ -1834,11 +1838,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14">
@@ -2118,7 +2122,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,248 +2417,248 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="28" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="18">
+      <c r="A2" s="28"/>
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="18">
+      <c r="E2" s="28"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16">
         <v>2</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>3</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <v>4</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>4</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="27" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="27" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G10" t="s">
@@ -2668,15 +2672,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>81</v>
       </c>
       <c r="G11" t="s">
@@ -2693,15 +2697,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G12" t="s">
@@ -2721,15 +2725,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G13" t="s">
@@ -2749,15 +2753,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>87</v>
       </c>
       <c r="G14" t="s">
@@ -2771,15 +2775,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>89</v>
       </c>
       <c r="G15" t="s">
@@ -2881,12 +2885,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
